--- a/Error Logs/Error Log.xlsx
+++ b/Error Logs/Error Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manap\OneDrive\Desktop\Code\Error Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB7B0F7-8CA1-4EB9-AA4F-FF28FFAE0F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BB759C-6DB3-42E1-9685-D6C52B67BE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>Question</t>
   </si>
@@ -118,6 +118,18 @@
   </si>
   <si>
     <t>Medium</t>
+  </si>
+  <si>
+    <t>Return element repeated twice</t>
+  </si>
+  <si>
+    <t>Return twice</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-all-duplicates-in-an-array/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-all-duplicates-in-an-array/discuss/775798/c%2B%2B-Four-Solution-or-O-(N*N)-to-greater-O(N)-or-Explain-All</t>
   </si>
 </sst>
 </file>
@@ -455,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,6 +610,26 @@
         <v>27</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{C54AB182-AE22-476D-AFC8-2AEAB57035DE}"/>
